--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/2_fold/149.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/2_fold/149.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-19.41030918901129</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>4.157190948185075</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>-2.190665645075752</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-15.54045143788174</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-4.990492938473907</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-16.90069503294394</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-20.10847147210676</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3.878690851778714</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>-2.629536499880151</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-15.83696580720654</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-4.971400726574184</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-16.81707288369058</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-20.82388505916326</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3.593309132098495</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-3.079251673690576</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-16.3673558126551</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-4.905149558433085</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-16.65238189339397</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-21.47268751489281</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>3.334498894358029</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>-3.487094513728793</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-16.78137283678196</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-4.866194752949036</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-16.50359686451872</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-22.08051976887129</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>3.09203185563266</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-3.869183130287215</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-17.3416036655994</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-4.833705355043836</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-16.36143921078801</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-22.62068223650872</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>2.876558601126372</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-4.208733933367298</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-17.87224701693877</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-4.762559363919595</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-16.1469521835328</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-23.12931911136535</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>2.673661048346325</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-4.528467475923678</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-18.40234629759459</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-4.694011132970533</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-15.91919865763785</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-23.60075964905788</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>2.485601282907403</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-4.824819078948148</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-19.02736306986803</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-4.630761139929777</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-15.57845471658411</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-24.08063397544827</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>2.294177240963869</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-5.126472234555288</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-19.61002123983955</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-4.542804260733122</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-15.19674166603432</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-24.57116608013555</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>2.098501762993169</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-5.434824961859043</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-20.20349437210093</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-4.462809649012177</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-14.79174468984869</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-25.11207725497916</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1.882729845791759</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-5.774846408770125</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-20.72057748846473</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-4.378442085771853</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-14.37302564009217</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-25.69607776440624</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1.649769397891763</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-6.14195418440374</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-21.53631803119696</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-4.250593517558583</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-13.98993020028139</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-26.34082122236654</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1.392578312742927</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-6.547245503307435</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-22.1982693117821</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-4.13275742614295</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-13.56363085360457</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-27.02209022369524</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1.120817022935806</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-6.975497094956338</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-22.9584357337768</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-3.984685096157733</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-13.15231718088074</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-27.73138046339052</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.8378779342480071</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-7.421363079608669</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-23.82318001693067</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-3.785835501115712</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-12.85813064812032</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-28.43608578912153</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.5567677885036765</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-7.864346947653698</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-24.58891589531196</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-3.571754714638416</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-12.62311533614519</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-29.11472314980028</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.2860562720694034</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-8.290944267209206</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-25.46187107725502</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-3.342202510179034</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-12.52380261189924</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-29.74137102836724</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.03608359548774001</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-8.684860548261639</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-26.16019202941169</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-3.06642160607162</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-12.46998863901492</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-30.29352894122621</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>-0.1841746964396824</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-9.031951792046705</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-26.96133818754847</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-2.849194680198491</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-12.52683629711411</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-30.76215830208685</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>-0.3711130707097405</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-9.326536264979659</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-27.66362545652035</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-2.572406481329273</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-12.52877608034531</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-31.1307558051147</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>-0.5181482838886277</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-9.558239846151888</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-28.17434792974018</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-2.338657767607308</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-12.67294661815577</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-31.41010995097352</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>-0.6295839177476364</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-9.733844280471416</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-28.78136883734314</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-2.142910408488771</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-12.77839067607395</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-31.58815723622907</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>-0.7006077861363849</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-9.845766345251619</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-29.09615525989154</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-1.946733955055584</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-12.926145766208</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-31.69233263313012</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>-0.7421638237262118</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-9.911251901539256</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-29.3088910503719</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-1.839193642089346</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-13.01030050735795</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-31.71014276591299</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>-0.7492683663478028</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-9.922447505180205</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-29.59367259770407</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-1.717955445750416</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-13.03024398528946</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-31.67975149752658</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>-0.7371451517593541</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-9.903343290790108</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-29.63943268008103</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-1.692908100591968</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-13.05451999386993</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-31.58663691360889</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>-0.7000013225583014</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-9.84481065729188</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-29.59324481693761</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-1.613953918328938</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-13.00409998895406</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-31.47306428970069</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>-0.6546966885592881</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-9.773417922760341</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-29.549432590672</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-1.633032047982814</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-12.89307415910008</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-31.32201463210395</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>-0.5944422961043941</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-9.678466800431773</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-29.43828434919694</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-1.6476452773356</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-12.78248562896511</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-31.17546192578373</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>-0.5359817578784785</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-9.586342500603534</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-29.20065421003555</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-1.669636775145121</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-12.62125518062402</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-31.01210096429734</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>-0.470816330549353</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-9.483652386076974</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-28.89344947476063</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-1.698827614052373</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-12.3889093549933</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-30.87082252891896</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>-0.4144597228870618</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-9.394843538619567</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-28.65254868168094</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-1.740752116675459</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-12.23703581526677</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-30.72335811103272</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>-0.3556354987887094</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-9.302146129008689</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-28.37468638441593</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-1.825571968517711</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-11.94041084705825</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-30.60252237513629</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>-0.3074335765260497</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-9.226187739408127</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-28.02685701256721</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-1.831397048094197</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-11.73052525714488</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-30.47284073049007</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>-0.255702981203747</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-9.144668734992727</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-27.66441871988339</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-1.893461647381548</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-11.52596950231426</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-30.36224907168144</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>-0.2115874676824719</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-9.075149860927537</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-27.31166986922041</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-1.984746078435248</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-11.28380075015948</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-30.2325138824319</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>-0.1598355131754212</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-8.993597197910976</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-26.97787627504394</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-2.015671518683962</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-11.08115214425268</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-30.11125409215269</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>-0.1114644336991092</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-8.917372244054567</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-26.54121594277411</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-2.062988693099272</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-10.8976220209866</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-29.96280373940556</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>-0.05224691571986908</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-8.824055067255376</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-26.21406333350604</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-2.127887965639002</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-10.74510232197376</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-29.81762556628729</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.005665314987113467</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-8.732794810896548</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-25.83612110294665</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-2.166781471935245</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-10.59230066254508</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-29.64469450275817</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.07464829936000023</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-8.624088847382218</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-25.40314051591062</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-2.232440357383342</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-10.49468492228335</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-29.47622721772992</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.1418506622743406</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-8.518188853674287</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-24.98192182334651</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-2.336677969514617</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-10.47096108618391</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-29.28454281852528</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.2183144371740599</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-8.397694381015841</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-24.46451890971069</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-2.323737213948084</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-10.40547447423272</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-29.10217941283137</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.2910600255515448</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-8.283059165565529</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-24.02607269657119</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-2.406882106901876</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-10.31583064257996</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-28.9040091523477</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.3701110398871703</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-8.158487624362149</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-23.61634593974289</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-2.418083290922531</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-10.37401239116521</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-28.72002332339342</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.443503820250478</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-8.042832539605845</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-23.10279305300519</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-2.496939725832029</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-10.33835875765667</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-28.52903251522593</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.5196909185445033</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-7.922774064277426</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-22.74670917364836</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-2.567512486713533</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-10.40444975698071</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-28.35292895118792</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.589939427737291</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-7.812073839480415</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-22.23544885956197</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-2.603941599986447</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-10.31392871514533</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-28.17672175439682</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.6602292765045924</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-7.701308470237718</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-21.74656189488243</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-2.679308123027952</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-10.3421404211969</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-28.0132476451762</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.7254398389773014</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-7.598547230065955</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-21.25257063348467</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-2.686139668998839</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-10.3693456852086</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-27.85330390187861</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.7892421224957922</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-7.498005208474061</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-20.76311467885363</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-2.734516325322331</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-10.36971641094054</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-27.70094714826815</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.8500179214698405</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-7.402232434276373</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-20.35656512868881</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-2.751037284803764</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-10.41210184937726</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-27.55440453937413</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.9084744317867148</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-7.310114481777658</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-19.90594169994491</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-2.824325434031644</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-10.45168073737854</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-27.4110729270875</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>0.96565006101567</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>-7.220014989542374</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-19.42445991105754</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-2.822545272483028</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-10.49147240106399</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-27.27718423236212</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>1.019058867666486</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-7.135851397028835</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-19.05094915698174</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-2.851014603382442</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-10.54864509686478</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-27.1425604178431</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>1.072760916932032</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>-7.051225701849435</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-18.74700469259681</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-2.853884068065739</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-10.62545059199074</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-27.01988472584916</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>1.121696806014367</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>-6.974110699918374</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-18.38636474041665</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-2.86835067638823</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-10.68447169496204</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-26.89098805233358</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>1.173114272797859</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>-6.893085135150804</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-17.98572936317839</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-2.882647469393147</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-10.73488386764414</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-26.77430279622698</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>1.219660549876601</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>-6.819735773074807</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-17.65619281060987</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-2.897022128933926</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-10.88767247334986</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-26.64602892268477</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>1.270829578930318</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>-6.739101705761778</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-17.18880286774764</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-2.896189619694113</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-10.9678641042105</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-26.52861924888094</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>1.317664829509067</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>-6.665296968450368</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-17.03710267089695</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-2.926912109929141</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-11.00971825612293</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-26.39641534493807</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>1.370401565487042</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>-6.582192450007124</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-16.74058414836081</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-2.911764583601549</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-11.12956318120569</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-26.2743250326344</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>1.41910394395999</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>-6.505445422816717</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-16.62956465643682</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-2.969785921595835</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-11.20999369519641</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-26.13575552855271</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>1.474379946660433</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>-6.418339433022311</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-16.3211554898777</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-2.958332913884729</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-11.33380956280226</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-26.00700406695216</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>1.525739487753418</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>-6.337405149721556</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-16.19510552616916</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-2.980847939892819</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-11.4758118772298</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-25.86078004436273</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>1.584068912550651</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>-6.245487463331751</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-16.1165267679034</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-2.986749229270363</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-11.436826933623</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-25.72479950416178</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>1.638312165834752</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>-6.160008918644177</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-16.0257126490747</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-3.073686388194171</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-11.50874119875751</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-25.57209562379962</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>1.699226435242044</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>-6.064017937565461</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-15.98202086593751</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-3.076529345120579</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-11.5587160717206</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-25.43119575611675</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>1.75543203053622</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>-5.975447061038534</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-15.90887866129595</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-3.109979649213026</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-11.5613881688096</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-25.27643873388575</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>1.817165307532796</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>-5.878165457208017</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-15.93771440752423</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-3.161125537764076</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-11.57115757506955</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-25.13834511444918</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>1.872251477693224</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>-5.791358612621033</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-16.02649760601509</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-3.249981195592768</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-11.50688104323634</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-24.99308495784044</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>1.930196411985819</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>-5.700046820730409</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-16.15449127262366</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-3.258576335764215</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-11.46719511470683</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-24.87358275355629</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>1.977866382449345</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>-5.624926700645059</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-16.32159988348946</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-3.348137762620092</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-11.48315329102001</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-24.75879178664093</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>2.023657018991273</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>-5.552768105152612</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-16.41478963919597</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-3.431388686601442</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-11.39245732929703</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-24.68310096655033</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>2.053850429896895</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>-5.505188200425127</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-16.58840633220777</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-3.475498422433113</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-11.26520963792617</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-24.62831906389742</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>2.075703178949042</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>-5.470751822197277</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-16.77967002013878</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-3.577550801355804</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-11.20381014663236</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-24.62952774318047</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>2.075221031309438</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-5.471511608457552</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-17.17916741747403</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-3.628569121326823</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-11.11426030178488</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-24.67181314172771</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>2.058353194336386</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-5.498092576028434</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-17.5565531177159</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-3.716178086214302</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-10.98893803454997</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-24.789433691137</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>2.011433824523659</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-5.572029871570873</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-18.05994309634175</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-3.795136410314345</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-10.84960390109455</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-24.97142649316533</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>1.938836071626683</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-5.686432122348861</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-18.53036903668243</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-3.855043940884805</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-10.67219336315003</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-25.24664255114957</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>1.829051139760477</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-5.859435318809025</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-19.04953291191997</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-3.913277340934207</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-10.58857774075815</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-25.61036183135263</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>1.683961871757796</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-6.088072406885187</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-19.77646118368206</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-4.010076213788343</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-10.50760158114789</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-26.0820815007711</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>1.495790759409326</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-6.384599474528893</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-20.55906325325348</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-4.068006431368321</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-10.47361099194389</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-26.66293910319942</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>1.264084031344022</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-6.749731591616474</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-21.42777385322256</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-4.16403078070084</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-10.34394966719854</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-27.36036936325682</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>0.9858759422425699</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-7.188142290402371</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-22.34410102103081</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-4.204797225694812</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-10.32397877644882</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-28.18136791605442</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>0.6583759015788899</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-7.70422908767524</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-23.38060966494562</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-4.226753103706013</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-10.2144632623408</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-29.12004125620722</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>0.2839348553402366</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-8.294287274932863</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-24.58516969869697</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-4.252738989131833</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-10.23832024641439</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-30.19095761569698</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>-0.1432585301842343</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-8.967474568909065</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-25.90707041200869</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-4.345690923767369</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-10.27225209386509</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-31.37489148574488</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>-0.6155351124785053</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-9.711705648359606</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-27.27243448183475</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-4.294573199708014</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-10.24493456783598</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-32.69603104124489</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>-1.142543664045726</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-10.54218540940809</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-28.87404151823971</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-4.292682865294826</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-10.3370886304131</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-34.11986913112964</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>-1.710519126056936</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-11.43722235818197</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-30.46679598470579</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-4.27183534286857</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-10.491529837445</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-35.6800410186741</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>-2.332878757352297</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-12.41795991233998</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-32.2557190816775</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-4.219843691199262</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-10.55019979526879</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-37.32703546304013</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>-2.98987229974616</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-13.45327487729659</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-34.20231261677934</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-4.170892147898228</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-10.77312474904247</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-39.0938145516959</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-3.694648479200827</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-14.56388750657101</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-36.17885703535018</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-4.136034447588425</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-10.9888975680088</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-40.93356254486931</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-4.428532285112666</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-15.72036902088146</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-38.24981017715135</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-4.037650079525331</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-11.17065891181441</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-42.8588049203519</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-5.196520187295278</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-16.93059304399465</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-40.29755309746373</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-3.962410296696455</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-11.42755748495225</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-44.84380478036579</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-5.988345620673612</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-18.17838113917563</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-42.6301980082367</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-3.830886262316963</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-11.70964452190515</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-46.86074079022107</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-6.792910528848896</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-19.44624457460259</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-44.8901534144025</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-3.690545913669476</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-11.98553626194334</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-48.93872803975524</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-7.621829053007152</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-20.75248534778253</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-47.12342651441196</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-3.589591121555495</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-12.20357259647017</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-50.95796240561867</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-8.427310785802362</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-22.02179354969196</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-49.38842495742895</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-3.474824959734637</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-12.42169116945162</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-53.11148781313895</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-9.286361823261416</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-23.37551826287899</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-51.69123215974151</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-3.297939526377845</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-12.65479541638605</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-19.62602273287425</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>4.071141838663391</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-2.326265046075012</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-19.6818575008495</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>4.048869096866183</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-2.361363264558627</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-19.76173284742331</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>4.017006459396471</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-2.411573598856866</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-19.87689785236071</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>3.971066617393693</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-2.48396731788783</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-20.00071709637877</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>3.921674560230278</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-2.561801166520424</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-20.12773982133704</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>3.87100462001261</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-2.641648751003012</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-20.22134593001113</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>3.833664719360326</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-2.700490361217998</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-20.26265777599093</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>3.817185236915231</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-2.726459345217415</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-20.19956269356618</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>3.842354151025214</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-2.686797230221843</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-19.99915361611106</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>3.922298239589404</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-2.560818349289854</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-19.60489330761304</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>4.079570462086252</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-2.312982906448683</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-18.98651424284144</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>4.32624467139901</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-1.924264473327106</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-18.10827549792202</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>4.676578083916533</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-1.372195995786014</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-16.97227855552505</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>5.129732408684925</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-0.6580984840234614</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-15.59878156709097</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>5.677626577354054</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>0.2052936126001502</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-14.04360678746714</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>6.297992839670107</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>1.182889941461733</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-12.38485179044681</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>6.959677719776303</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>2.225597691622205</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-10.71289553882727</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>7.626628640124982</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>3.276603864700567</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-9.128268184916822</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>8.258743667702124</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>4.272714336715289</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-7.714172792593007</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>8.822832723535749</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>5.161626941464586</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-6.552908699979722</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>9.28606622894959</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>5.89160760257852</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-5.688973524000855</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>9.630693883041952</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>6.434684732864551</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-5.163004918261423</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>9.840505141759175</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>6.765313151486208</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-4.965840787319697</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>9.91915480646419</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>6.889252230949956</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-5.091009446388909</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>9.869224461525944</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>6.810570128334978</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-5.481121246778695</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>9.713607097700294</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>6.565342473602252</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-6.095173157865123</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>9.468659009588388</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>6.179344126745233</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-6.847386232785258</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>9.168597807550157</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>5.706496476308494</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-7.683068282769029</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>8.835240453363609</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>5.18117950559652</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-8.515012922376414</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>8.503373969101341</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>4.658211903400082</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-9.305900036107074</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>8.187885517843347</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>4.161053417384743</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-9.996986905070607</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>7.912207836175752</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>3.726630229152094</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-10.58987592992812</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>7.675701719218254</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>3.35393505577536</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-11.06339568053999</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>7.486812546329939</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>3.056276441511063</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-11.45482921736581</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>7.330667935854375</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>2.81021793181302</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-11.76763168481198</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>7.20588961504097</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>2.613587592997863</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-12.05082348038091</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>7.092923125333513</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>2.435570778849891</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-12.30684226607065</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>6.990796072321856</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>2.274635153935484</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-12.57494924956698</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>6.88384698246285</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>2.106100783238217</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-12.84587830981973</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>6.775772153405724</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>1.93579243066252</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-13.14513310567864</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>6.656398060140113</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>1.747678275482708</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-13.45335226662954</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>6.533448041043512</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>1.553929042805927</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-13.78496534616189</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>6.401166081883683</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>1.345474190399102</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-14.1138311394801</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>6.26998002763596</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>1.138746305888396</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-14.44708751918163</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>6.137042548596836</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>0.9292584607699721</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-14.75738975001549</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>6.013261583490587</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>0.7341997923326432</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-15.04762746878533</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>5.897484443110309</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>0.5517538498674649</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-15.29554590909628</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>5.798588654553261</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>0.3959101721789022</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-15.50291811742033</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>5.715866941552403</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>0.2655542069062771</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-15.65702251557409</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>5.654393999255692</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>0.168682848220159</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-15.75890696700737</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>5.61375183018768</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>0.1046374000851684</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-15.80356700213587</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>5.595936739928646</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>0.0765637154032372</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-15.79136933768644</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>5.600802443515549</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>0.08423127286538196</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-15.72634450140379</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>5.626741145178483</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>0.125106447840971</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-15.60845838660914</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>5.673766450226066</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>0.1992106800835224</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-15.45043596861299</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>5.736802308380947</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>0.2985449399589513</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-15.25139201283359</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>5.816201843726637</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>0.4236656935883887</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-15.03151505237466</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>5.903911758982792</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>0.5618822543005423</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-14.78859484900776</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>6.000813728187971</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>0.7145839969787717</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-14.54803008115177</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>6.096776103501086</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>0.8658050925049902</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-14.30748232599318</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>6.19273169237216</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>1.017015493702344</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-14.09453875842224</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>6.277675845806915</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>1.150873663626105</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-13.90498393765053</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>6.353290122225788</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>1.270029464846895</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-13.76132180154967</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>6.41059759890104</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>1.360336727212985</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-13.6511291998495</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>6.45455392673459</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>1.429604750525353</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-13.59121471343888</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>6.478454086690971</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>1.467267515333571</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-13.56686989884232</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>6.488165343480834</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>1.482570876530163</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-13.59514634331641</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>6.476885741728148</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>1.464796058758353</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-13.66162462148964</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>6.450367255513043</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>1.423007237628608</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-13.78170416783853</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>6.402466980685357</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>1.347524195323595</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-13.93725258028033</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>6.340418014549823</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>1.249745116755889</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-14.13959647994802</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>6.259702116643057</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>1.122549989832272</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-14.36719075784937</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>6.168913728510673</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>0.9794822565707519</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-14.62711153629004</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>6.065230152920207</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>0.8160938052354615</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-14.89472575735841</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>5.958477628225223</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>0.6478691892660111</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-15.17913221724539</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>5.845026603420603</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>0.4690888266129619</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-15.46301163267547</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>5.731785819036597</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>0.2906397686678812</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-15.76074628730838</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>5.613018116990106</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>0.1034811874218495</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-16.05887543021592</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>5.494093051784398</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-0.08392537256850313</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-16.3728274620889</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>5.368856164515252</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-0.2812783375335694</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-16.69347025299232</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>5.240950303169265</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-0.4828371715438113</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-17.03588143730832</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>5.104360931111221</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-0.6980798060915693</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-17.39689641610143</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>4.960350421187593</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-0.9250169468916259</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-17.78983700215204</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>4.803604641951474</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-1.172022800778167</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-18.21349854398216</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>4.63460413433279</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-1.438340113404041</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-18.6753171482816</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>4.450382601698007</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-1.728643285805228</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-19.17199541881628</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>4.252255390337414</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-2.040859546165019</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-19.70447181021404</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>4.039848146450093</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-2.375578815186233</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-20.26986055455119</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>3.814312015929227</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-2.730987074171339</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-20.87016641004778</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>3.574847291642136</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-3.108344531491682</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-21.50864690293522</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>3.320154531623164</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-3.509698896335142</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-22.18989043412512</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>3.048403401969754</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-3.937934477234312</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-22.91693881862299</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>2.758380508901128</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-4.394963385433157</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-23.68558870638618</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>2.451762587784481</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-4.878143358708516</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-24.49698440244987</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>2.128093170159204</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-5.388193717111201</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-25.33229581824609</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>1.794883663628516</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-5.913277703964479</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-26.19302390989762</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>1.451535329997849</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-6.454338833280177</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-27.03825485885023</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>1.114368876769734</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-6.985658324544132</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-27.88398116967654</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.7770048214469194</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-7.517289204569995</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-28.65775648893869</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.4683423424944398</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-8.003691068453964</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-29.43413077765835</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.1586431228557328</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-8.491726667036938</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-34.32245524411529</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>-1.791331643953121</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-11.56456974249399</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-33.90158285320752</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>-1.623443741268238</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-11.30000571428222</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-33.3761972388671</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>-1.4138650404602</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-10.96974376910066</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-32.79165209027785</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>-1.180687333531975</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-10.60229362857502</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-32.18951376682088</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>-0.9404916294770199</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-10.223784266032</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-31.58794355994351</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>-0.7005225496984292</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-9.845632026488829</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-31.02710916613329</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>-0.4768031702274666</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-9.49308667166974</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-30.5109559912167</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>-0.2709073313153804</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-9.168628317830722</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-30.07123710205762</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>-0.0955014751302839</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-8.892217217673227</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-29.70508157432054</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.05055962304644704</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-8.66204868330777</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-29.44248220984928</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.1553116987346913</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-8.496976449606436</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-29.28052769498424</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.219916088137367</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-8.395170439600973</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-29.24433254984969</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.2343544954439322</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-8.372417858045667</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-29.32347015819528</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.2027861450943588</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-8.422164443707407</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-29.51937628986077</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.1246383019975783</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-8.545312733936223</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-29.80435654835718</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.01095838632916442</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-8.72445379136226</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-30.15338895310438</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>-0.1282722205435732</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-8.943858582389749</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-30.5263428701123</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>-0.2770452269874545</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-9.178300643101206</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-30.88514025875383</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>-0.4201711301570911</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>-9.403843787535374</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-31.19399430930411</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>-0.5433744095900265</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>-9.597992117310252</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-31.41933183457463</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>-0.6332625688781018</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>-9.739641236332426</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-31.54305838105635</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>-0.6826176485744849</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>-9.817416814491242</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-31.54738208902905</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>-0.6843423952650259</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>-9.820134734751113</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-31.43758197401305</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>-0.6405426321471965</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>-9.751113431965981</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-31.21260984561078</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>-0.5508002313245947</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>-9.609694004578255</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-30.89634826749798</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>-0.4246420556014325</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>-9.410889238854221</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-30.49816326496842</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>-0.2658042548821311</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>-9.160586699370654</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-30.04977882616882</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>-0.08694167170285265</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>-8.878728359695696</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-29.56120699164834</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.1079518456210832</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-8.571607875187892</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-29.06120976036403</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.30740300545487</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-8.257305287370249</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-28.55227115804145</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>0.5104209186874783</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-7.937382076316865</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-28.05684449914747</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.7080488564965819</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-7.625952589869009</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-27.57155296055458</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.9016338489199386</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-7.320894127777213</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-27.11499896947121</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>1.083755303501642</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>-7.033900336816834</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-26.67880120822725</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>1.257756565815707</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>-6.759702648147475</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-26.27556132163617</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>1.41861078267856</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>-6.506222564785177</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-25.89024558710282</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>1.572314974114738</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>-6.264009758567012</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-25.53045046828378</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>1.715838876370481</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>-6.037839432306392</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-25.17873873962916</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>1.856138277683405</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-5.816750395077098</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-24.84232042830736</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>1.990337065564898</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-5.605274932370867</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-24.50740056787408</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>2.123938114601112</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-5.394741408864525</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-24.18537258960659</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>2.252396533459548</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-5.19231183408634</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-23.86667385129943</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>2.379526903421103</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-4.991975048366818</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-23.56408344414058</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>2.500231587139825</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-4.801764099049101</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-23.26923624274124</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>2.617847471015397</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-4.61642059590097</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-22.99272881733801</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>2.728147535193088</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-4.442605634702494</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-22.72816264693107</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>2.833684178675901</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-4.276297049764312</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-22.48605739936511</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>2.9302610583215</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-4.124107595357225</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-22.26571986088603</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>3.018154700235655</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-3.985601511314607</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-22.07699789473039</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>3.093436747176535</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-3.866969249715094</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-21.92093128420457</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>3.15569242487448</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-3.768864427345991</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-21.8018511241412</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>3.203194039987079</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-3.694009607911251</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-21.71969223458846</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>3.235967593092278</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-3.642363818728942</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-21.67360414154161</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>3.254352342122009</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-3.613392444477531</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-21.6632606382291</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>3.258478412434688</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-3.606890428756623</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-21.68440093146554</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>3.25004545372729</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-3.620179400086263</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-21.73682663366176</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>3.229132603707543</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-3.65313465031056</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-21.80943634985115</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>3.200168259101122</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-3.698777746454129</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-21.89825753159734</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>3.164737087469273</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-3.754611510181459</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-21.99061327245588</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>3.127895964200992</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-3.81266712836377</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-22.0876361305461</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>3.089193106733608</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-3.873656536838874</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-22.17848343713353</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>3.052953704727132</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-3.930763940180581</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-22.26430872528587</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>3.018717608616993</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-3.98471445926083</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-22.33535197069827</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>2.990378136297391</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-4.029372858313812</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-22.39406616969375</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>2.966956776426496</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-4.066281112062575</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-22.43004344451843</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>2.95260527857318</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-4.0888967384551</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-22.44166206529797</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>2.947970558128439</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-4.096200304053853</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-22.41515897942385</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>2.958542759104808</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-4.07954023484909</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-22.34961674296987</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>2.984687854039172</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-4.038339817646921</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-22.23535203722</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>3.030268562618971</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-3.966512034478693</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-22.07714195943884</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>3.093379279111923</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-3.86705981003793</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-21.87320121181172</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>3.174732166901154</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-3.738860890663874</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-21.63807822903254</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>3.268523789503601</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-3.591060548343822</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-21.37820490051095</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>3.372188437106467</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-3.427701924438414</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-21.11297235307433</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>3.477990901404158</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-3.260974449130874</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-20.8493166335859</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>3.583164361892536</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-3.095238181521393</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-20.60366004569658</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>3.681157887275626</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-2.940816323844825</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-20.37827366888789</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>3.771065533663505</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-2.799136496322874</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-20.18408679284098</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>3.848527557908259</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-2.677068945058653</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-20.01883803057052</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>3.914446037519193</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-2.573192142617458</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-19.88842017180704</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>3.966470311986873</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-2.491210347634899</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-19.78765508488776</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>4.006665961481133</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-2.427868541723192</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-19.71711628957175</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>4.034804206372844</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-2.38352724436758</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-19.67081174879239</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>4.05327529738327</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-2.354419809197837</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-19.64673433378058</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>4.062879887267838</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-2.339284537694966</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-19.63973980545756</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>4.065670036291129</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-2.334887716642894</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-19.64487224314119</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>4.063622683656503</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-2.338114011399839</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-19.65770391893219</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>4.058504070074283</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-2.346180113879619</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-19.67392442061058</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>4.052033638499029</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-2.356376461647633</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-19.69558593741639</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>4.043392761349411</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-2.369993078624956</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-19.72210757442582</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>4.032813160241149</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-2.386664809233974</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-19.7616304971363</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>4.017047287389461</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-2.411509260580454</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-19.81640254036039</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>3.995198471308116</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-2.445939441086003</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-19.89626648589525</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>3.963340381764472</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-2.496142608592465</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-20.00379559367636</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>3.920446533717066</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-2.563736336570741</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-20.141710132008</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>3.86543179982038</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-2.650430609224944</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-20.31085020740496</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>3.797961057781178</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-2.756753524782668</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-20.49903684906419</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>3.722892554206178</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-2.875049276769686</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-20.70994053943264</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>3.63876211702523</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-3.007625162225742</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-20.90881091335178</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>3.559431824269676</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-3.132636800795206</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-21.12476640504369</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>3.473286200663342</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-3.268388292294173</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>